--- a/output/OUTPUT9_A07.xlsx
+++ b/output/OUTPUT9_A07.xlsx
@@ -288,16 +288,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -306,7 +306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -776,7 +776,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C33" sqref="C33"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1039,14 +1039,26 @@
     <row r="3" ht="35" customHeight="1">
       <c r="A3" s="54" t="n"/>
       <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
+      <c r="C3" s="48" t="inlineStr">
+        <is>
+          <t>B2000002-</t>
+        </is>
+      </c>
+      <c r="D3" s="48" t="inlineStr">
+        <is>
+          <t>B1008527-</t>
+        </is>
+      </c>
       <c r="E3" s="48" t="inlineStr">
         <is>
           <t>B2000595-</t>
         </is>
       </c>
-      <c r="F3" s="48" t="n"/>
+      <c r="F3" s="48" t="inlineStr">
+        <is>
+          <t>B2012254-</t>
+        </is>
+      </c>
       <c r="G3" s="48" t="inlineStr">
         <is>
           <t>B1008371-</t>
@@ -1062,10 +1074,26 @@
           <t>B2011392-</t>
         </is>
       </c>
-      <c r="J3" s="48" t="n"/>
-      <c r="K3" s="48" t="n"/>
-      <c r="L3" s="48" t="n"/>
-      <c r="M3" s="48" t="n"/>
+      <c r="J3" s="48" t="inlineStr">
+        <is>
+          <t>B2012264-</t>
+        </is>
+      </c>
+      <c r="K3" s="48" t="inlineStr">
+        <is>
+          <t>B2012262-</t>
+        </is>
+      </c>
+      <c r="L3" s="48" t="inlineStr">
+        <is>
+          <t>B2012256-</t>
+        </is>
+      </c>
+      <c r="M3" s="48" t="inlineStr">
+        <is>
+          <t>B1006698-</t>
+        </is>
+      </c>
       <c r="N3" s="48" t="inlineStr">
         <is>
           <t>T2002343-</t>
@@ -1096,7 +1124,11 @@
           <t>B1009179-</t>
         </is>
       </c>
-      <c r="T3" s="48" t="n"/>
+      <c r="T3" s="48" t="inlineStr">
+        <is>
+          <t>B2012255-</t>
+        </is>
+      </c>
       <c r="U3" s="48" t="inlineStr">
         <is>
           <t>B1006115-</t>
@@ -1107,11 +1139,7 @@
           <t>B1006326-</t>
         </is>
       </c>
-      <c r="W3" s="48" t="inlineStr">
-        <is>
-          <t>b2000157-</t>
-        </is>
-      </c>
+      <c r="W3" s="48" t="n"/>
       <c r="X3" s="48" t="n"/>
       <c r="Y3" s="48" t="n"/>
       <c r="Z3" s="48" t="inlineStr">
@@ -1119,11 +1147,7 @@
           <t>b2011343-</t>
         </is>
       </c>
-      <c r="AA3" s="48" t="inlineStr">
-        <is>
-          <t>B2000643-</t>
-        </is>
-      </c>
+      <c r="AA3" s="48" t="n"/>
       <c r="AB3" s="48" t="inlineStr">
         <is>
           <t>M1017668-</t>
@@ -1289,10 +1313,14 @@
       <c r="B5" s="48" t="n"/>
       <c r="C5" s="48" t="inlineStr">
         <is>
-          <t>B2000026-</t>
-        </is>
-      </c>
-      <c r="D5" s="48" t="n"/>
+          <t>P1226452-</t>
+        </is>
+      </c>
+      <c r="D5" s="48" t="inlineStr">
+        <is>
+          <t>B2011430-</t>
+        </is>
+      </c>
       <c r="E5" s="48" t="inlineStr">
         <is>
           <t>B2009946-</t>
@@ -1300,10 +1328,14 @@
       </c>
       <c r="F5" s="48" t="inlineStr">
         <is>
-          <t>B2011172-</t>
-        </is>
-      </c>
-      <c r="G5" s="48" t="n"/>
+          <t>T2003375-</t>
+        </is>
+      </c>
+      <c r="G5" s="48" t="inlineStr">
+        <is>
+          <t>T1001001-</t>
+        </is>
+      </c>
       <c r="H5" s="48" t="inlineStr">
         <is>
           <t>B2010802-</t>
@@ -1316,7 +1348,7 @@
       </c>
       <c r="J5" s="48" t="inlineStr">
         <is>
-          <t>B1005884-</t>
+          <t>t1000390-</t>
         </is>
       </c>
       <c r="K5" s="48" t="inlineStr">
@@ -1366,7 +1398,7 @@
       </c>
       <c r="T5" s="48" t="inlineStr">
         <is>
-          <t>B1008939-</t>
+          <t>P1227622-</t>
         </is>
       </c>
       <c r="U5" s="48" t="inlineStr">
@@ -1386,7 +1418,7 @@
       </c>
       <c r="X5" s="48" t="inlineStr">
         <is>
-          <t>b2000830-</t>
+          <t>B1008906-</t>
         </is>
       </c>
       <c r="Y5" s="48" t="inlineStr">
@@ -1573,17 +1605,17 @@
       <c r="B7" s="48" t="n"/>
       <c r="C7" s="48" t="inlineStr">
         <is>
-          <t>B2010095-</t>
+          <t>T1000755-</t>
         </is>
       </c>
       <c r="D7" s="48" t="inlineStr">
         <is>
-          <t>B2010854-</t>
+          <t>B2011524-</t>
         </is>
       </c>
       <c r="E7" s="48" t="inlineStr">
         <is>
-          <t>B2000166-</t>
+          <t>B2012277-</t>
         </is>
       </c>
       <c r="F7" s="48" t="inlineStr">
@@ -1593,7 +1625,7 @@
       </c>
       <c r="G7" s="48" t="inlineStr">
         <is>
-          <t>B1008877-</t>
+          <t>B2011172-</t>
         </is>
       </c>
       <c r="H7" s="48" t="inlineStr">
@@ -1608,15 +1640,19 @@
       </c>
       <c r="J7" s="48" t="inlineStr">
         <is>
-          <t>B2011124-</t>
+          <t>B2000675-</t>
         </is>
       </c>
       <c r="K7" s="48" t="inlineStr">
         <is>
-          <t>t2001877-</t>
-        </is>
-      </c>
-      <c r="L7" s="48" t="n"/>
+          <t>X1000184-</t>
+        </is>
+      </c>
+      <c r="L7" s="48" t="inlineStr">
+        <is>
+          <t>T2001726-</t>
+        </is>
+      </c>
       <c r="M7" s="48" t="inlineStr">
         <is>
           <t>t1000671-</t>
@@ -1632,15 +1668,19 @@
           <t>B2010292-</t>
         </is>
       </c>
-      <c r="P7" s="48" t="n"/>
+      <c r="P7" s="48" t="inlineStr">
+        <is>
+          <t>B1006747-</t>
+        </is>
+      </c>
       <c r="Q7" s="48" t="inlineStr">
         <is>
-          <t>B1006789-</t>
+          <t>T1000734-</t>
         </is>
       </c>
       <c r="R7" s="48" t="inlineStr">
         <is>
-          <t>B1007173-</t>
+          <t>X1000220-</t>
         </is>
       </c>
       <c r="S7" s="48" t="inlineStr">
@@ -1655,17 +1695,17 @@
       </c>
       <c r="U7" s="48" t="inlineStr">
         <is>
-          <t>B2000372-</t>
+          <t>B1008894-</t>
         </is>
       </c>
       <c r="V7" s="48" t="inlineStr">
         <is>
-          <t>T2000191-</t>
+          <t>B1009115-</t>
         </is>
       </c>
       <c r="W7" s="48" t="inlineStr">
         <is>
-          <t>B1007294-</t>
+          <t>T2002334-</t>
         </is>
       </c>
       <c r="X7" s="48" t="inlineStr">
@@ -1675,14 +1715,10 @@
       </c>
       <c r="Y7" s="48" t="inlineStr">
         <is>
-          <t>B2011032-</t>
-        </is>
-      </c>
-      <c r="Z7" s="48" t="inlineStr">
-        <is>
-          <t>B2010623-</t>
-        </is>
-      </c>
+          <t>T1001244-</t>
+        </is>
+      </c>
+      <c r="Z7" s="48" t="n"/>
       <c r="AA7" s="48" t="inlineStr">
         <is>
           <t>B2011253-</t>
@@ -1690,7 +1726,7 @@
       </c>
       <c r="AB7" s="48" t="inlineStr">
         <is>
-          <t>B1005021-</t>
+          <t>B2011429-</t>
         </is>
       </c>
       <c r="AC7" s="48" t="inlineStr">
@@ -1700,7 +1736,7 @@
       </c>
       <c r="AD7" s="48" t="inlineStr">
         <is>
-          <t>B2010241-</t>
+          <t>B2011433-</t>
         </is>
       </c>
     </row>
@@ -1857,17 +1893,17 @@
       <c r="B9" s="48" t="n"/>
       <c r="C9" s="48" t="inlineStr">
         <is>
-          <t>t2001616-</t>
+          <t>t2003386-</t>
         </is>
       </c>
       <c r="D9" s="48" t="inlineStr">
         <is>
-          <t>t2001175-</t>
+          <t>B1007455-</t>
         </is>
       </c>
       <c r="E9" s="48" t="inlineStr">
         <is>
-          <t>B2000368-</t>
+          <t>t2001736-</t>
         </is>
       </c>
       <c r="F9" s="48" t="inlineStr">
@@ -1877,7 +1913,7 @@
       </c>
       <c r="G9" s="48" t="inlineStr">
         <is>
-          <t>B2009997-</t>
+          <t>X1000130-</t>
         </is>
       </c>
       <c r="H9" s="48" t="inlineStr">
@@ -1892,11 +1928,19 @@
       </c>
       <c r="J9" s="48" t="inlineStr">
         <is>
-          <t>M1000912-</t>
-        </is>
-      </c>
-      <c r="K9" s="48" t="n"/>
-      <c r="L9" s="48" t="n"/>
+          <t>B1009092-</t>
+        </is>
+      </c>
+      <c r="K9" s="48" t="inlineStr">
+        <is>
+          <t>b2000135-</t>
+        </is>
+      </c>
+      <c r="L9" s="48" t="inlineStr">
+        <is>
+          <t>B1008171-</t>
+        </is>
+      </c>
       <c r="M9" s="48" t="inlineStr">
         <is>
           <t>B2000288-</t>
@@ -1904,14 +1948,22 @@
       </c>
       <c r="N9" s="48" t="inlineStr">
         <is>
-          <t>B2009987-</t>
-        </is>
-      </c>
-      <c r="O9" s="48" t="n"/>
-      <c r="P9" s="48" t="n"/>
+          <t>T1001079-</t>
+        </is>
+      </c>
+      <c r="O9" s="48" t="inlineStr">
+        <is>
+          <t>B1008133-</t>
+        </is>
+      </c>
+      <c r="P9" s="48" t="inlineStr">
+        <is>
+          <t>T1000653-</t>
+        </is>
+      </c>
       <c r="Q9" s="48" t="inlineStr">
         <is>
-          <t>b2000056-</t>
+          <t>B2011513-</t>
         </is>
       </c>
       <c r="R9" s="48" t="inlineStr">
@@ -1931,12 +1983,12 @@
       </c>
       <c r="U9" s="48" t="inlineStr">
         <is>
-          <t>T2001109-</t>
+          <t>B2012210-</t>
         </is>
       </c>
       <c r="V9" s="48" t="inlineStr">
         <is>
-          <t>B1008284-</t>
+          <t>T1000744-</t>
         </is>
       </c>
       <c r="W9" s="48" t="inlineStr">
@@ -1954,14 +2006,15 @@
           <t>B2000989-</t>
         </is>
       </c>
-      <c r="Z9" s="48" t="inlineStr">
-        <is>
-          <t>b2000825-</t>
+      <c r="Z9" s="49" t="inlineStr">
+        <is>
+          <t>T2002843-
+b2000825-</t>
         </is>
       </c>
       <c r="AA9" s="48" t="inlineStr">
         <is>
-          <t>T1000249-</t>
+          <t>B2011518-</t>
         </is>
       </c>
       <c r="AB9" s="48" t="inlineStr">
@@ -1969,7 +2022,11 @@
           <t>B1008094-</t>
         </is>
       </c>
-      <c r="AC9" s="48" t="n"/>
+      <c r="AC9" s="48" t="inlineStr">
+        <is>
+          <t>B2000716-</t>
+        </is>
+      </c>
       <c r="AD9" s="48" t="inlineStr">
         <is>
           <t>B1006388-</t>
@@ -2137,10 +2194,9 @@
           <t>b2010776-</t>
         </is>
       </c>
-      <c r="E11" s="49" t="inlineStr">
-        <is>
-          <t>B2010922-
-T2000303-</t>
+      <c r="E11" s="48" t="inlineStr">
+        <is>
+          <t>T2000303-</t>
         </is>
       </c>
       <c r="F11" s="48" t="inlineStr">
@@ -2150,7 +2206,7 @@
       </c>
       <c r="G11" s="48" t="inlineStr">
         <is>
-          <t>B2010705-</t>
+          <t>B2010473-</t>
         </is>
       </c>
       <c r="H11" s="48" t="inlineStr">
@@ -2160,7 +2216,7 @@
       </c>
       <c r="I11" s="48" t="inlineStr">
         <is>
-          <t>B1008443-</t>
+          <t>B2010166-</t>
         </is>
       </c>
       <c r="J11" s="48" t="inlineStr">
@@ -2175,7 +2231,7 @@
       </c>
       <c r="L11" s="48" t="inlineStr">
         <is>
-          <t>B1009240-</t>
+          <t>B2000257-</t>
         </is>
       </c>
       <c r="M11" s="48" t="inlineStr">
@@ -2235,12 +2291,12 @@
       </c>
       <c r="X11" s="48" t="inlineStr">
         <is>
-          <t>B2010111-</t>
+          <t>B1000135-</t>
         </is>
       </c>
       <c r="Y11" s="48" t="inlineStr">
         <is>
-          <t>B2000260-</t>
+          <t>T2001051-</t>
         </is>
       </c>
       <c r="Z11" s="48" t="inlineStr">
@@ -2263,7 +2319,11 @@
           <t>B2000170-</t>
         </is>
       </c>
-      <c r="AD11" s="48" t="n"/>
+      <c r="AD11" s="48" t="inlineStr">
+        <is>
+          <t>B2012212-</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="11" customHeight="1">
       <c r="A12" s="54" t="n"/>
@@ -2421,7 +2481,11 @@
           <t>B2000579-</t>
         </is>
       </c>
-      <c r="D13" s="48" t="n"/>
+      <c r="D13" s="48" t="inlineStr">
+        <is>
+          <t>B1007510-</t>
+        </is>
+      </c>
       <c r="E13" s="48" t="inlineStr">
         <is>
           <t>T1000267-</t>
@@ -2429,27 +2493,27 @@
       </c>
       <c r="F13" s="48" t="inlineStr">
         <is>
-          <t>B2010998-</t>
+          <t>m1010247-</t>
         </is>
       </c>
       <c r="G13" s="48" t="inlineStr">
         <is>
-          <t>t2001408-</t>
+          <t>P1231998-</t>
         </is>
       </c>
       <c r="H13" s="48" t="inlineStr">
         <is>
-          <t>B1008872-</t>
+          <t>T2002696-</t>
         </is>
       </c>
       <c r="I13" s="48" t="inlineStr">
         <is>
-          <t>T2002674-</t>
+          <t>T2001687-</t>
         </is>
       </c>
       <c r="J13" s="48" t="inlineStr">
         <is>
-          <t>T2001803-</t>
+          <t>B2011526-</t>
         </is>
       </c>
       <c r="K13" s="48" t="inlineStr">
@@ -2464,17 +2528,17 @@
       </c>
       <c r="M13" s="48" t="inlineStr">
         <is>
-          <t>b2000365-</t>
+          <t>B2011511-</t>
         </is>
       </c>
       <c r="N13" s="48" t="inlineStr">
         <is>
-          <t>B1007801-</t>
+          <t>B1004353-</t>
         </is>
       </c>
       <c r="O13" s="48" t="inlineStr">
         <is>
-          <t>t1000524-</t>
+          <t>B1004717-</t>
         </is>
       </c>
       <c r="P13" s="48" t="inlineStr">
@@ -2484,7 +2548,7 @@
       </c>
       <c r="Q13" s="48" t="inlineStr">
         <is>
-          <t>B2010508-</t>
+          <t>T2003384-</t>
         </is>
       </c>
       <c r="R13" s="48" t="inlineStr">
@@ -2502,20 +2566,24 @@
           <t>B1008991-</t>
         </is>
       </c>
-      <c r="U13" s="48" t="n"/>
+      <c r="U13" s="48" t="inlineStr">
+        <is>
+          <t>B1008564-</t>
+        </is>
+      </c>
       <c r="V13" s="48" t="inlineStr">
         <is>
-          <t>t1000698-</t>
+          <t>T1000872-</t>
         </is>
       </c>
       <c r="W13" s="48" t="inlineStr">
         <is>
-          <t>B1008753-</t>
+          <t>T2003385-</t>
         </is>
       </c>
       <c r="X13" s="48" t="inlineStr">
         <is>
-          <t>T1001054-</t>
+          <t>B2011418-</t>
         </is>
       </c>
       <c r="Y13" s="48" t="inlineStr">
@@ -2530,12 +2598,12 @@
       </c>
       <c r="AA13" s="48" t="inlineStr">
         <is>
-          <t>T2002673-</t>
+          <t>B2011177-</t>
         </is>
       </c>
       <c r="AB13" s="48" t="inlineStr">
         <is>
-          <t>T2001507-</t>
+          <t>b1004215-</t>
         </is>
       </c>
       <c r="AC13" s="48" t="inlineStr">
@@ -2545,7 +2613,7 @@
       </c>
       <c r="AD13" s="48" t="inlineStr">
         <is>
-          <t>B2010934-</t>
+          <t>B2010708-</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2785,12 @@
       </c>
       <c r="F15" s="48" t="inlineStr">
         <is>
-          <t>B1005560-</t>
+          <t>B1004712-</t>
         </is>
       </c>
       <c r="G15" s="48" t="inlineStr">
         <is>
-          <t>T2000180-</t>
+          <t>X1000240-</t>
         </is>
       </c>
       <c r="H15" s="48" t="inlineStr">
@@ -2782,13 +2850,17 @@
       </c>
       <c r="S15" s="48" t="inlineStr">
         <is>
-          <t>B1008220-</t>
-        </is>
-      </c>
-      <c r="T15" s="48" t="n"/>
+          <t>B2000968-</t>
+        </is>
+      </c>
+      <c r="T15" s="48" t="inlineStr">
+        <is>
+          <t>B2010219-</t>
+        </is>
+      </c>
       <c r="U15" s="48" t="inlineStr">
         <is>
-          <t>B1004941-</t>
+          <t>t2001695-</t>
         </is>
       </c>
       <c r="V15" s="48" t="inlineStr">
@@ -2808,7 +2880,7 @@
       </c>
       <c r="Y15" s="48" t="inlineStr">
         <is>
-          <t>B1005961-</t>
+          <t>B2012208-</t>
         </is>
       </c>
       <c r="Z15" s="48" t="inlineStr">
@@ -3193,7 +3265,7 @@
       </c>
       <c r="V18" s="46" t="inlineStr">
         <is>
-          <t>07107G</t>
+          <t>07101G</t>
         </is>
       </c>
       <c r="W18" s="46" t="inlineStr">
@@ -3260,15 +3332,15 @@
           <t>B2010427-</t>
         </is>
       </c>
-      <c r="G19" s="48" t="n"/>
-      <c r="H19" s="48" t="inlineStr">
-        <is>
-          <t>B1004555-</t>
-        </is>
-      </c>
+      <c r="G19" s="48" t="inlineStr">
+        <is>
+          <t>B2012263-</t>
+        </is>
+      </c>
+      <c r="H19" s="48" t="n"/>
       <c r="I19" s="48" t="inlineStr">
         <is>
-          <t>B2000383-</t>
+          <t>B2012269-</t>
         </is>
       </c>
       <c r="J19" s="48" t="inlineStr">
@@ -3278,10 +3350,14 @@
       </c>
       <c r="K19" s="48" t="inlineStr">
         <is>
-          <t>b1007504-</t>
-        </is>
-      </c>
-      <c r="L19" s="48" t="n"/>
+          <t>B2012230-</t>
+        </is>
+      </c>
+      <c r="L19" s="48" t="inlineStr">
+        <is>
+          <t>B2012265-</t>
+        </is>
+      </c>
       <c r="M19" s="48" t="inlineStr">
         <is>
           <t>T2001813-</t>
@@ -3314,7 +3390,7 @@
       </c>
       <c r="S19" s="48" t="inlineStr">
         <is>
-          <t>B1006700-</t>
+          <t>B2012258-</t>
         </is>
       </c>
       <c r="T19" s="48" t="inlineStr">
@@ -3327,7 +3403,11 @@
           <t>B1000594-</t>
         </is>
       </c>
-      <c r="V19" s="48" t="n"/>
+      <c r="V19" s="48" t="inlineStr">
+        <is>
+          <t>B2012267-</t>
+        </is>
+      </c>
       <c r="W19" s="48" t="inlineStr">
         <is>
           <t>B2011156-</t>
@@ -3345,7 +3425,7 @@
       </c>
       <c r="Z19" s="48" t="inlineStr">
         <is>
-          <t>B2011368-</t>
+          <t>B2010827-</t>
         </is>
       </c>
       <c r="AA19" s="48" t="inlineStr">
@@ -3473,7 +3553,7 @@
       </c>
       <c r="V20" s="46" t="inlineStr">
         <is>
-          <t>07107F</t>
+          <t>07101F</t>
         </is>
       </c>
       <c r="W20" s="46" t="inlineStr">
@@ -3525,7 +3605,11 @@
           <t>B1006400-</t>
         </is>
       </c>
-      <c r="D21" s="48" t="n"/>
+      <c r="D21" s="48" t="inlineStr">
+        <is>
+          <t>b1006136-</t>
+        </is>
+      </c>
       <c r="E21" s="48" t="inlineStr">
         <is>
           <t>M1016580-</t>
@@ -3563,7 +3647,7 @@
       </c>
       <c r="L21" s="48" t="inlineStr">
         <is>
-          <t>B2010995-</t>
+          <t>B1005838-</t>
         </is>
       </c>
       <c r="M21" s="48" t="inlineStr">
@@ -3573,7 +3657,7 @@
       </c>
       <c r="N21" s="48" t="inlineStr">
         <is>
-          <t>B1000206-</t>
+          <t>B1000189-</t>
         </is>
       </c>
       <c r="O21" s="48" t="inlineStr">
@@ -3583,7 +3667,7 @@
       </c>
       <c r="P21" s="48" t="inlineStr">
         <is>
-          <t>b1006252-</t>
+          <t>T1000852-</t>
         </is>
       </c>
       <c r="Q21" s="48" t="inlineStr">
@@ -3598,7 +3682,7 @@
       </c>
       <c r="S21" s="48" t="inlineStr">
         <is>
-          <t>b1004833-</t>
+          <t>X1000358-</t>
         </is>
       </c>
       <c r="T21" s="48" t="inlineStr">
@@ -3611,7 +3695,11 @@
           <t>B2010807-</t>
         </is>
       </c>
-      <c r="V21" s="48" t="n"/>
+      <c r="V21" s="48" t="inlineStr">
+        <is>
+          <t>B1006006-</t>
+        </is>
+      </c>
       <c r="W21" s="48" t="inlineStr">
         <is>
           <t>B2011386-</t>
@@ -3757,7 +3845,7 @@
       </c>
       <c r="V22" s="46" t="inlineStr">
         <is>
-          <t>07107E</t>
+          <t>07101E</t>
         </is>
       </c>
       <c r="W22" s="46" t="inlineStr">
@@ -3806,7 +3894,7 @@
       <c r="B23" s="48" t="n"/>
       <c r="C23" s="48" t="inlineStr">
         <is>
-          <t>B2000008-</t>
+          <t>b2010314-</t>
         </is>
       </c>
       <c r="D23" s="48" t="inlineStr">
@@ -3826,7 +3914,7 @@
       </c>
       <c r="G23" s="48" t="inlineStr">
         <is>
-          <t>T1000742-</t>
+          <t>T1000736-</t>
         </is>
       </c>
       <c r="H23" s="48" t="inlineStr">
@@ -3846,7 +3934,7 @@
       </c>
       <c r="K23" s="48" t="inlineStr">
         <is>
-          <t>B1005018-</t>
+          <t>NC100147-</t>
         </is>
       </c>
       <c r="L23" s="48" t="inlineStr">
@@ -3871,7 +3959,7 @@
       </c>
       <c r="P23" s="48" t="inlineStr">
         <is>
-          <t>B1007455-</t>
+          <t>B1007313-</t>
         </is>
       </c>
       <c r="Q23" s="48" t="inlineStr">
@@ -3886,12 +3974,12 @@
       </c>
       <c r="S23" s="48" t="inlineStr">
         <is>
-          <t>P1229846-</t>
+          <t>B2010896-</t>
         </is>
       </c>
       <c r="T23" s="48" t="inlineStr">
         <is>
-          <t>B1008752-</t>
+          <t>B2010633-</t>
         </is>
       </c>
       <c r="U23" s="48" t="inlineStr">
@@ -3899,7 +3987,11 @@
           <t>B2011120-</t>
         </is>
       </c>
-      <c r="V23" s="48" t="n"/>
+      <c r="V23" s="48" t="inlineStr">
+        <is>
+          <t>t2001072-</t>
+        </is>
+      </c>
       <c r="W23" s="48" t="inlineStr">
         <is>
           <t>B2010794-</t>
@@ -3917,7 +4009,7 @@
       </c>
       <c r="Z23" s="48" t="inlineStr">
         <is>
-          <t>b1008776-</t>
+          <t>T2001943-</t>
         </is>
       </c>
       <c r="AA23" s="48" t="inlineStr">
@@ -3927,17 +4019,17 @@
       </c>
       <c r="AB23" s="48" t="inlineStr">
         <is>
-          <t>b1005267-</t>
+          <t>T2001596-</t>
         </is>
       </c>
       <c r="AC23" s="48" t="inlineStr">
         <is>
-          <t>B1004215-</t>
+          <t>T2001707-</t>
         </is>
       </c>
       <c r="AD23" s="48" t="inlineStr">
         <is>
-          <t>T1000768-</t>
+          <t>B2011428-</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4137,7 @@
       </c>
       <c r="V24" s="46" t="inlineStr">
         <is>
-          <t>07107D</t>
+          <t>07101D</t>
         </is>
       </c>
       <c r="W24" s="46" t="inlineStr">
@@ -4107,7 +4199,11 @@
           <t>b1008898-</t>
         </is>
       </c>
-      <c r="F25" s="48" t="n"/>
+      <c r="F25" s="48" t="inlineStr">
+        <is>
+          <t>t2001174-</t>
+        </is>
+      </c>
       <c r="G25" s="48" t="inlineStr">
         <is>
           <t>B2000823-</t>
@@ -4115,7 +4211,7 @@
       </c>
       <c r="H25" s="48" t="inlineStr">
         <is>
-          <t>b1004780-</t>
+          <t>T2001405-</t>
         </is>
       </c>
       <c r="I25" s="48" t="inlineStr">
@@ -4130,7 +4226,7 @@
       </c>
       <c r="K25" s="48" t="inlineStr">
         <is>
-          <t>B2010021-</t>
+          <t>B2010443-</t>
         </is>
       </c>
       <c r="L25" s="48" t="inlineStr">
@@ -4140,7 +4236,7 @@
       </c>
       <c r="M25" s="48" t="inlineStr">
         <is>
-          <t>B2010517-</t>
+          <t>T1000742-</t>
         </is>
       </c>
       <c r="N25" s="48" t="inlineStr">
@@ -4175,15 +4271,19 @@
       </c>
       <c r="T25" s="48" t="inlineStr">
         <is>
-          <t>P1098195-</t>
+          <t>B2010172-</t>
         </is>
       </c>
       <c r="U25" s="48" t="inlineStr">
         <is>
-          <t>B2011026-</t>
-        </is>
-      </c>
-      <c r="V25" s="48" t="n"/>
+          <t>B2012224-</t>
+        </is>
+      </c>
+      <c r="V25" s="48" t="inlineStr">
+        <is>
+          <t>B2012260-</t>
+        </is>
+      </c>
       <c r="W25" s="48" t="inlineStr">
         <is>
           <t>B2010441-</t>
@@ -4201,7 +4301,7 @@
       </c>
       <c r="Z25" s="48" t="inlineStr">
         <is>
-          <t>B1007193-</t>
+          <t>b1006959-</t>
         </is>
       </c>
       <c r="AA25" s="48" t="inlineStr">
@@ -4211,12 +4311,12 @@
       </c>
       <c r="AB25" s="48" t="inlineStr">
         <is>
-          <t>B2000701-</t>
+          <t>t2002720-</t>
         </is>
       </c>
       <c r="AC25" s="48" t="inlineStr">
         <is>
-          <t>B1009119-</t>
+          <t>B2012261-</t>
         </is>
       </c>
       <c r="AD25" s="48" t="inlineStr">
@@ -4329,7 +4429,7 @@
       </c>
       <c r="V26" s="46" t="inlineStr">
         <is>
-          <t>07107C</t>
+          <t>07101C</t>
         </is>
       </c>
       <c r="W26" s="46" t="inlineStr">
@@ -4378,7 +4478,7 @@
       <c r="B27" s="48" t="n"/>
       <c r="C27" s="48" t="inlineStr">
         <is>
-          <t>B1008539-</t>
+          <t>B2010578-</t>
         </is>
       </c>
       <c r="D27" s="48" t="inlineStr">
@@ -4386,19 +4486,15 @@
           <t>t2001125-</t>
         </is>
       </c>
-      <c r="E27" s="48" t="inlineStr">
-        <is>
-          <t>B2010978-</t>
-        </is>
-      </c>
+      <c r="E27" s="48" t="n"/>
       <c r="F27" s="48" t="inlineStr">
         <is>
-          <t>T2002679-</t>
+          <t>B2011516-</t>
         </is>
       </c>
       <c r="G27" s="48" t="inlineStr">
         <is>
-          <t>B1008506-</t>
+          <t>B2012272-</t>
         </is>
       </c>
       <c r="H27" s="48" t="inlineStr">
@@ -4411,10 +4507,14 @@
           <t>B1007059-</t>
         </is>
       </c>
-      <c r="J27" s="48" t="n"/>
+      <c r="J27" s="48" t="inlineStr">
+        <is>
+          <t>T1001310-</t>
+        </is>
+      </c>
       <c r="K27" s="48" t="inlineStr">
         <is>
-          <t>B1008977-</t>
+          <t>B1007156-</t>
         </is>
       </c>
       <c r="L27" s="48" t="inlineStr">
@@ -4424,7 +4524,7 @@
       </c>
       <c r="M27" s="48" t="inlineStr">
         <is>
-          <t>B2000719-</t>
+          <t>b1004307-</t>
         </is>
       </c>
       <c r="N27" s="48" t="inlineStr">
@@ -4432,9 +4532,10 @@
           <t>B2000342-</t>
         </is>
       </c>
-      <c r="O27" s="48" t="inlineStr">
-        <is>
-          <t>B2010208-</t>
+      <c r="O27" s="49" t="inlineStr">
+        <is>
+          <t>T1001022-
+T2001327-</t>
         </is>
       </c>
       <c r="P27" s="48" t="inlineStr">
@@ -4454,12 +4555,12 @@
       </c>
       <c r="S27" s="48" t="inlineStr">
         <is>
-          <t>B1004437-</t>
+          <t>B2012257-</t>
         </is>
       </c>
       <c r="T27" s="48" t="inlineStr">
         <is>
-          <t>B1007884-</t>
+          <t>B2000862-</t>
         </is>
       </c>
       <c r="U27" s="48" t="inlineStr">
@@ -4467,15 +4568,19 @@
           <t>B2010453-</t>
         </is>
       </c>
-      <c r="V27" s="48" t="n"/>
+      <c r="V27" s="48" t="inlineStr">
+        <is>
+          <t>B2011377-</t>
+        </is>
+      </c>
       <c r="W27" s="48" t="inlineStr">
         <is>
-          <t>B1007529-</t>
+          <t>T1001088-</t>
         </is>
       </c>
       <c r="X27" s="48" t="inlineStr">
         <is>
-          <t>P1226312-</t>
+          <t>B1007752-</t>
         </is>
       </c>
       <c r="Y27" s="48" t="inlineStr">
@@ -4485,12 +4590,12 @@
       </c>
       <c r="Z27" s="48" t="inlineStr">
         <is>
-          <t>t2001327-</t>
+          <t>B1007950-</t>
         </is>
       </c>
       <c r="AA27" s="48" t="inlineStr">
         <is>
-          <t>b1008338-</t>
+          <t>B2010425-</t>
         </is>
       </c>
       <c r="AB27" s="48" t="inlineStr">
@@ -4503,7 +4608,11 @@
           <t>B1008491-</t>
         </is>
       </c>
-      <c r="AD27" s="48" t="n"/>
+      <c r="AD27" s="48" t="inlineStr">
+        <is>
+          <t>T2003393-</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="11" customHeight="1">
       <c r="A28" s="54" t="n"/>
@@ -4609,7 +4718,7 @@
       </c>
       <c r="V28" s="46" t="inlineStr">
         <is>
-          <t>07107B</t>
+          <t>07101B</t>
         </is>
       </c>
       <c r="W28" s="46" t="inlineStr">
@@ -4663,7 +4772,7 @@
       </c>
       <c r="D29" s="48" t="inlineStr">
         <is>
-          <t>B2010151-</t>
+          <t>B2010327-</t>
         </is>
       </c>
       <c r="E29" s="48" t="inlineStr">
@@ -4678,7 +4787,7 @@
       </c>
       <c r="G29" s="48" t="inlineStr">
         <is>
-          <t>b1008458-</t>
+          <t>B1004434-</t>
         </is>
       </c>
       <c r="H29" s="48" t="inlineStr">
@@ -4693,17 +4802,17 @@
       </c>
       <c r="J29" s="48" t="inlineStr">
         <is>
-          <t>T2001351-</t>
+          <t>B2011512-</t>
         </is>
       </c>
       <c r="K29" s="48" t="inlineStr">
         <is>
-          <t>t2001919-</t>
+          <t>B2011501-</t>
         </is>
       </c>
       <c r="L29" s="48" t="inlineStr">
         <is>
-          <t>T1000852-</t>
+          <t>T1000788-</t>
         </is>
       </c>
       <c r="M29" s="48" t="inlineStr">
@@ -4723,7 +4832,7 @@
       </c>
       <c r="P29" s="48" t="inlineStr">
         <is>
-          <t>T2001154-</t>
+          <t>b2009949-</t>
         </is>
       </c>
       <c r="Q29" s="48" t="inlineStr">
@@ -4738,34 +4847,42 @@
       </c>
       <c r="S29" s="48" t="inlineStr">
         <is>
-          <t>B2000257-</t>
+          <t>B1006839-</t>
         </is>
       </c>
       <c r="T29" s="48" t="inlineStr">
         <is>
-          <t>B1008057-</t>
+          <t>P1098195-</t>
         </is>
       </c>
       <c r="U29" s="48" t="inlineStr">
         <is>
-          <t>T1000310-</t>
-        </is>
-      </c>
-      <c r="V29" s="48" t="n"/>
+          <t>T1000958-</t>
+        </is>
+      </c>
+      <c r="V29" s="48" t="inlineStr">
+        <is>
+          <t>B1009162-</t>
+        </is>
+      </c>
       <c r="W29" s="48" t="inlineStr">
         <is>
           <t>B2000336-</t>
         </is>
       </c>
-      <c r="X29" s="48" t="n"/>
+      <c r="X29" s="48" t="inlineStr">
+        <is>
+          <t>b2000985-</t>
+        </is>
+      </c>
       <c r="Y29" s="48" t="inlineStr">
         <is>
-          <t>b1009067-</t>
+          <t>B1008486-</t>
         </is>
       </c>
       <c r="Z29" s="48" t="inlineStr">
         <is>
-          <t>B1000644-</t>
+          <t>B2011416-</t>
         </is>
       </c>
       <c r="AA29" s="48" t="inlineStr">
@@ -4780,10 +4897,14 @@
       </c>
       <c r="AC29" s="48" t="inlineStr">
         <is>
-          <t>B2011067-</t>
-        </is>
-      </c>
-      <c r="AD29" s="48" t="n"/>
+          <t>T2000237-</t>
+        </is>
+      </c>
+      <c r="AD29" s="48" t="inlineStr">
+        <is>
+          <t>B1004758-</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="11" customHeight="1">
       <c r="A30" s="54" t="n"/>
@@ -4889,7 +5010,7 @@
       </c>
       <c r="V30" s="46" t="inlineStr">
         <is>
-          <t>07107A</t>
+          <t>07101A</t>
         </is>
       </c>
       <c r="W30" s="46" t="inlineStr">
@@ -4938,7 +5059,7 @@
       <c r="B31" s="48" t="n"/>
       <c r="C31" s="48" t="inlineStr">
         <is>
-          <t>t2000241-</t>
+          <t>T2001821-</t>
         </is>
       </c>
       <c r="D31" s="48" t="inlineStr">
@@ -4946,11 +5067,14 @@
           <t>B1005032-</t>
         </is>
       </c>
-      <c r="E31" s="48" t="n"/>
-      <c r="F31" s="49" t="inlineStr">
-        <is>
-          <t>B1005936-
-t2001174-</t>
+      <c r="E31" s="48" t="inlineStr">
+        <is>
+          <t>B1004202-</t>
+        </is>
+      </c>
+      <c r="F31" s="48" t="inlineStr">
+        <is>
+          <t>B1005936-</t>
         </is>
       </c>
       <c r="G31" s="48" t="inlineStr">
@@ -4965,7 +5089,7 @@
       </c>
       <c r="I31" s="48" t="inlineStr">
         <is>
-          <t>B1008825-</t>
+          <t>T1001035-</t>
         </is>
       </c>
       <c r="J31" s="48" t="inlineStr">
@@ -4980,7 +5104,7 @@
       </c>
       <c r="L31" s="48" t="inlineStr">
         <is>
-          <t>t2000240-</t>
+          <t>b1005884-</t>
         </is>
       </c>
       <c r="M31" s="48" t="inlineStr">
@@ -4995,12 +5119,12 @@
       </c>
       <c r="O31" s="48" t="inlineStr">
         <is>
-          <t>P1234134-</t>
+          <t>U1000146-</t>
         </is>
       </c>
       <c r="P31" s="48" t="inlineStr">
         <is>
-          <t>p1225170-</t>
+          <t>B1008939-</t>
         </is>
       </c>
       <c r="Q31" s="48" t="inlineStr">
@@ -5028,10 +5152,14 @@
           <t>b2000345-</t>
         </is>
       </c>
-      <c r="V31" s="48" t="n"/>
+      <c r="V31" s="48" t="inlineStr">
+        <is>
+          <t>B2010481-</t>
+        </is>
+      </c>
       <c r="W31" s="48" t="inlineStr">
         <is>
-          <t>B2010850-</t>
+          <t>x1000179-</t>
         </is>
       </c>
       <c r="X31" s="48" t="inlineStr">
@@ -5061,7 +5189,7 @@
       </c>
       <c r="AC31" s="48" t="inlineStr">
         <is>
-          <t>B2010146-</t>
+          <t>B1005043-</t>
         </is>
       </c>
       <c r="AD31" s="48" t="inlineStr">
